--- a/inhoud/aansturingLEDs/waarden.xlsx
+++ b/inhoud/aansturingLEDs/waarden.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kuleuven-my.sharepoint.com/personal/bert_pyck_student_kuleuven_be/Documents/VF/KlaasMeersman.github.io/inhoud/aansturingLEDs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="108" documentId="8_{5B323894-837A-4DD8-965E-7AD4C062CCE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EAFC8B46-3F90-46D1-8F6E-EFF38D22E154}"/>
+  <xr:revisionPtr revIDLastSave="110" documentId="8_{5B323894-837A-4DD8-965E-7AD4C062CCE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B40ED92E-2F1D-41E1-A505-04FB0CC942C0}"/>
   <bookViews>
-    <workbookView xWindow="32865" yWindow="5040" windowWidth="21600" windowHeight="11295" xr2:uid="{61976EB4-725B-4DCA-8C58-61CBE177FCE7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{61976EB4-725B-4DCA-8C58-61CBE177FCE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -354,10 +354,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -679,8 +675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67FBDD95-B3B4-4A2A-98AF-14ECBC3ACE0A}">
   <dimension ref="A1:V29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M10" workbookViewId="0">
-      <selection activeCell="X18" sqref="X18"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19:I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
